--- a/Fotos_Facturas.xlsx
+++ b/Fotos_Facturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C65C8037-B49F-4F25-83D2-39AAF5F9B041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A93B44-1C05-4D98-9EAA-863EFBECFA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1997DA72-F45F-4572-A47D-F3559BE45E99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>ENLACE</t>
   </si>
@@ -108,9 +108,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-C0A]"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +139,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +182,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EC"/>
+        <bgColor rgb="FFA6C9EC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,21 +212,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -232,14 +247,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF4D257-C089-4E3B-822C-C72BC14175A5}">
-  <dimension ref="B1:J234"/>
+  <dimension ref="B1:J401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F154" sqref="F154:F401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,1882 +616,4330 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="12">
+        <v>45536</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="12">
+        <v>45537</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="12">
+        <v>45538</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="12">
+        <v>45539</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="12">
+        <v>45540</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="12">
+        <v>45541</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="12">
+        <v>45542</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="12">
+        <v>45543</v>
+      </c>
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="12">
+        <v>45544</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="12">
+        <v>45545</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="12">
+        <v>45546</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="12">
+        <v>45547</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="12">
+        <v>45548</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="12">
+        <v>45549</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="12">
+        <v>45550</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="12">
+        <v>45551</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="12">
+        <v>45552</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="12">
+        <v>45553</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="F20" s="12">
+        <v>45554</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="12">
+        <v>45555</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="12">
+        <v>45556</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="F23" s="12">
+        <v>45557</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="F24" s="12">
+        <v>45558</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="F25" s="12">
+        <v>45559</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="F26" s="12">
+        <v>45560</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="F27" s="12">
+        <v>45561</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="F28" s="12">
+        <v>45562</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="12">
+        <v>45563</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="F30" s="12">
+        <v>45564</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12">
+        <v>45565</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>45566</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F33" s="12">
+        <v>45567</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F34" s="12">
+        <v>45568</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F35" s="12">
+        <v>45569</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F36" s="12">
+        <v>45570</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F37" s="12">
+        <v>45571</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="12">
+        <v>45572</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F39" s="12">
+        <v>45573</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="F40" s="12">
+        <v>45574</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="F41" s="12">
+        <v>45575</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="12">
+        <v>45576</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="F43" s="12">
+        <v>45577</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12">
+        <v>45578</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="12">
+        <v>45579</v>
+      </c>
+      <c r="G45">
+        <v>44</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="12">
+        <v>45580</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="12">
+        <v>45581</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="12">
+        <v>45582</v>
+      </c>
+      <c r="G48">
+        <v>47</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F49" s="12">
+        <v>45583</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F50" s="12">
+        <v>45584</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F51" s="12">
+        <v>45585</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="F52" s="12">
+        <v>45586</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="F53" s="12">
+        <v>45587</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J54" s="12"/>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" s="12">
+        <v>45588</v>
+      </c>
+      <c r="G54">
+        <v>53</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F55" s="12">
+        <v>45589</v>
+      </c>
+      <c r="G55">
+        <v>54</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F56" s="12">
+        <v>45590</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F57" s="12">
+        <v>45591</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F58" s="12">
+        <v>45592</v>
+      </c>
+      <c r="G58">
+        <v>57</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F59" s="12">
+        <v>45593</v>
+      </c>
+      <c r="G59">
+        <v>58</v>
+      </c>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="F60" s="12">
+        <v>45594</v>
+      </c>
+      <c r="G60">
+        <v>59</v>
+      </c>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="F61" s="12">
+        <v>45595</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="9"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="2"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="12">
+        <v>45596</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J63" s="2"/>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63" s="12">
+        <v>45597</v>
+      </c>
+      <c r="G63">
+        <v>62</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F64" s="12">
+        <v>45598</v>
+      </c>
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F65" s="12">
+        <v>45599</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F66" s="12">
+        <v>45600</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F67" s="12">
+        <v>45601</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="F68" s="12">
+        <v>45602</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="F69" s="12">
+        <v>45603</v>
+      </c>
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="12">
+        <v>45604</v>
+      </c>
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="F71" s="12">
+        <v>45605</v>
+      </c>
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="7"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="2"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12">
+        <v>45606</v>
+      </c>
+      <c r="G72">
+        <v>71</v>
+      </c>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="F73" s="12">
+        <v>45607</v>
+      </c>
+      <c r="G73">
+        <v>72</v>
+      </c>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="F74" s="12">
+        <v>45608</v>
+      </c>
+      <c r="G74">
+        <v>73</v>
+      </c>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="F75" s="12">
+        <v>45609</v>
+      </c>
+      <c r="G75">
+        <v>74</v>
+      </c>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="F76" s="12">
+        <v>45610</v>
+      </c>
+      <c r="G76">
+        <v>75</v>
+      </c>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="F77" s="12">
+        <v>45611</v>
+      </c>
+      <c r="G77">
+        <v>76</v>
+      </c>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="F78" s="12">
+        <v>45612</v>
+      </c>
+      <c r="G78">
+        <v>77</v>
+      </c>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="F79" s="12">
+        <v>45613</v>
+      </c>
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="F80" s="12">
+        <v>45614</v>
+      </c>
+      <c r="G80">
+        <v>79</v>
+      </c>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="F81" s="12">
+        <v>45615</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="F82" s="12">
+        <v>45616</v>
+      </c>
+      <c r="G82">
+        <v>81</v>
+      </c>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="F83" s="12">
+        <v>45617</v>
+      </c>
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="F84" s="12">
+        <v>45618</v>
+      </c>
+      <c r="G84">
+        <v>83</v>
+      </c>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="F85" s="12">
+        <v>45619</v>
+      </c>
+      <c r="G85">
+        <v>84</v>
+      </c>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="F86" s="12">
+        <v>45620</v>
+      </c>
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="F87" s="12">
+        <v>45621</v>
+      </c>
+      <c r="G87">
+        <v>86</v>
+      </c>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="F88" s="12">
+        <v>45622</v>
+      </c>
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="F89" s="12">
+        <v>45623</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="F90" s="12">
+        <v>45624</v>
+      </c>
+      <c r="G90">
+        <v>89</v>
+      </c>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="F91" s="12">
+        <v>45625</v>
+      </c>
+      <c r="G91">
+        <v>90</v>
+      </c>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="9"/>
-      <c r="C92" s="2"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="3"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="12">
+        <v>45626</v>
+      </c>
+      <c r="G92">
+        <v>91</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J93" s="2"/>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93" s="12">
+        <v>45627</v>
+      </c>
+      <c r="G93">
+        <v>92</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J94" s="2"/>
+      <c r="B94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94" s="12">
+        <v>45628</v>
+      </c>
+      <c r="G94">
+        <v>93</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F95" s="12">
+        <v>45629</v>
+      </c>
+      <c r="G95">
+        <v>94</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F96" s="12">
+        <v>45630</v>
+      </c>
+      <c r="G96">
+        <v>95</v>
+      </c>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="F97" s="12">
+        <v>45631</v>
+      </c>
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="F98" s="12">
+        <v>45632</v>
+      </c>
+      <c r="G98">
+        <v>97</v>
+      </c>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="F99" s="12">
+        <v>45633</v>
+      </c>
+      <c r="G99">
+        <v>98</v>
+      </c>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="F100" s="12">
+        <v>45634</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100" s="4"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="F101" s="12">
+        <v>45635</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="F102" s="12">
+        <v>45636</v>
+      </c>
+      <c r="G102">
+        <v>101</v>
+      </c>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="F103" s="12">
+        <v>45637</v>
+      </c>
+      <c r="G103">
+        <v>102</v>
+      </c>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="F104" s="12">
+        <v>45638</v>
+      </c>
+      <c r="G104">
+        <v>103</v>
+      </c>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="F105" s="12">
+        <v>45639</v>
+      </c>
+      <c r="G105">
+        <v>104</v>
+      </c>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="F106" s="12">
+        <v>45640</v>
+      </c>
+      <c r="G106">
+        <v>105</v>
+      </c>
+      <c r="H106" s="4"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="F107" s="12">
+        <v>45641</v>
+      </c>
+      <c r="G107">
+        <v>106</v>
+      </c>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="F108" s="12">
+        <v>45642</v>
+      </c>
+      <c r="G108">
+        <v>107</v>
+      </c>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="F109" s="12">
+        <v>45643</v>
+      </c>
+      <c r="G109">
+        <v>108</v>
+      </c>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="F110" s="12">
+        <v>45644</v>
+      </c>
+      <c r="G110">
+        <v>109</v>
+      </c>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="4"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="F111" s="12">
+        <v>45645</v>
+      </c>
+      <c r="G111">
+        <v>110</v>
+      </c>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="F112" s="12">
+        <v>45646</v>
+      </c>
+      <c r="G112">
+        <v>111</v>
+      </c>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="4"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="F113" s="12">
+        <v>45647</v>
+      </c>
+      <c r="G113">
+        <v>112</v>
+      </c>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="4"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+      <c r="F114" s="12">
+        <v>45648</v>
+      </c>
+      <c r="G114">
+        <v>113</v>
+      </c>
+      <c r="H114" s="4"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="4"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="F115" s="12">
+        <v>45649</v>
+      </c>
+      <c r="G115">
+        <v>114</v>
+      </c>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="4"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="F116" s="12">
+        <v>45650</v>
+      </c>
+      <c r="G116">
+        <v>115</v>
+      </c>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="4"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="F117" s="12">
+        <v>45651</v>
+      </c>
+      <c r="G117">
+        <v>116</v>
+      </c>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="4"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+      <c r="F118" s="12">
+        <v>45652</v>
+      </c>
+      <c r="G118">
+        <v>117</v>
+      </c>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="F119" s="12">
+        <v>45653</v>
+      </c>
+      <c r="G119">
+        <v>118</v>
+      </c>
+      <c r="H119" s="4"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="4"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+      <c r="F120" s="12">
+        <v>45654</v>
+      </c>
+      <c r="G120">
+        <v>119</v>
+      </c>
+      <c r="H120" s="4"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="4"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="F121" s="12">
+        <v>45655</v>
+      </c>
+      <c r="G121">
+        <v>120</v>
+      </c>
+      <c r="H121" s="4"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="F122" s="12">
+        <v>45656</v>
+      </c>
+      <c r="G122">
+        <v>121</v>
+      </c>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="9"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="12">
+        <v>45657</v>
+      </c>
+      <c r="G123">
+        <v>122</v>
+      </c>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J124" s="2"/>
+      <c r="B124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="F124" s="12">
+        <v>45658</v>
+      </c>
+      <c r="G124">
+        <v>123</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="3"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J125" s="2"/>
+      <c r="B125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="F125" s="12">
+        <v>45659</v>
+      </c>
+      <c r="G125">
+        <v>124</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="3"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="F126" s="12">
+        <v>45660</v>
+      </c>
+      <c r="G126">
+        <v>125</v>
+      </c>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="4"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="F127" s="12">
+        <v>45661</v>
+      </c>
+      <c r="G127">
+        <v>126</v>
+      </c>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+      <c r="F128" s="12">
+        <v>45662</v>
+      </c>
+      <c r="G128">
+        <v>127</v>
+      </c>
+      <c r="H128" s="4"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" s="4"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+      <c r="F129" s="12">
+        <v>45663</v>
+      </c>
+      <c r="G129">
+        <v>128</v>
+      </c>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" s="4"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="F130" s="12">
+        <v>45664</v>
+      </c>
+      <c r="G130">
+        <v>129</v>
+      </c>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="4"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="F131" s="12">
+        <v>45665</v>
+      </c>
+      <c r="G131">
+        <v>130</v>
+      </c>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="4"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="F132" s="12">
+        <v>45666</v>
+      </c>
+      <c r="G132">
+        <v>131</v>
+      </c>
+      <c r="H132" s="4"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="4"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="F133" s="12">
+        <v>45667</v>
+      </c>
+      <c r="G133">
+        <v>132</v>
+      </c>
+      <c r="H133" s="4"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="4"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
+      <c r="F134" s="12">
+        <v>45668</v>
+      </c>
+      <c r="G134">
+        <v>133</v>
+      </c>
+      <c r="H134" s="4"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="4"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
+      <c r="F135" s="12">
+        <v>45669</v>
+      </c>
+      <c r="G135">
+        <v>134</v>
+      </c>
+      <c r="H135" s="4"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="4"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
+      <c r="F136" s="12">
+        <v>45670</v>
+      </c>
+      <c r="G136">
+        <v>135</v>
+      </c>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="4"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
+      <c r="F137" s="12">
+        <v>45671</v>
+      </c>
+      <c r="G137">
+        <v>136</v>
+      </c>
+      <c r="H137" s="4"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="4"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+      <c r="F138" s="12">
+        <v>45672</v>
+      </c>
+      <c r="G138">
+        <v>137</v>
+      </c>
+      <c r="H138" s="4"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="4"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
+      <c r="F139" s="12">
+        <v>45673</v>
+      </c>
+      <c r="G139">
+        <v>138</v>
+      </c>
+      <c r="H139" s="4"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="4"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+      <c r="F140" s="12">
+        <v>45674</v>
+      </c>
+      <c r="G140">
+        <v>139</v>
+      </c>
+      <c r="H140" s="4"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="4"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
+      <c r="F141" s="12">
+        <v>45675</v>
+      </c>
+      <c r="G141">
+        <v>140</v>
+      </c>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="4"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="F142" s="12">
+        <v>45676</v>
+      </c>
+      <c r="G142">
+        <v>141</v>
+      </c>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="4"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
+      <c r="F143" s="12">
+        <v>45677</v>
+      </c>
+      <c r="G143">
+        <v>142</v>
+      </c>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="4"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
+      <c r="F144" s="12">
+        <v>45678</v>
+      </c>
+      <c r="G144">
+        <v>143</v>
+      </c>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
+      <c r="F145" s="12">
+        <v>45679</v>
+      </c>
+      <c r="G145">
+        <v>144</v>
+      </c>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="4"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="F146" s="12">
+        <v>45680</v>
+      </c>
+      <c r="G146">
+        <v>145</v>
+      </c>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="4"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
+      <c r="F147" s="12">
+        <v>45681</v>
+      </c>
+      <c r="G147">
+        <v>146</v>
+      </c>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="4"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
+      <c r="F148" s="12">
+        <v>45682</v>
+      </c>
+      <c r="G148">
+        <v>147</v>
+      </c>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="4"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
+      <c r="F149" s="12">
+        <v>45683</v>
+      </c>
+      <c r="G149">
+        <v>148</v>
+      </c>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="4"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
+      <c r="F150" s="12">
+        <v>45684</v>
+      </c>
+      <c r="G150">
+        <v>149</v>
+      </c>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="4"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
+      <c r="F151" s="12">
+        <v>45685</v>
+      </c>
+      <c r="G151">
+        <v>150</v>
+      </c>
+      <c r="H151" s="4"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="4"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="F152" s="12">
+        <v>45686</v>
+      </c>
+      <c r="G152">
+        <v>151</v>
+      </c>
+      <c r="H152" s="4"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" s="4"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="F153" s="12">
+        <v>45687</v>
+      </c>
+      <c r="G153">
+        <v>152</v>
+      </c>
+      <c r="H153" s="4"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B154" s="9"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="2"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="12">
+        <v>45688</v>
+      </c>
+      <c r="G154">
+        <v>153</v>
+      </c>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="4"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="F155" s="12">
+        <v>45689</v>
+      </c>
+      <c r="G155">
+        <v>154</v>
+      </c>
+      <c r="H155" s="4"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="4"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="F156" s="12">
+        <v>45690</v>
+      </c>
+      <c r="G156">
+        <v>155</v>
+      </c>
+      <c r="H156" s="3"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="4"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
+      <c r="F157" s="12">
+        <v>45691</v>
+      </c>
+      <c r="G157">
+        <v>156</v>
+      </c>
+      <c r="H157" s="3"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="4"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
+      <c r="F158" s="12">
+        <v>45692</v>
+      </c>
+      <c r="G158">
+        <v>157</v>
+      </c>
+      <c r="H158" s="3"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="4"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="F159" s="12">
+        <v>45693</v>
+      </c>
+      <c r="G159">
+        <v>158</v>
+      </c>
+      <c r="H159" s="3"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="4"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
+      <c r="F160" s="12">
+        <v>45694</v>
+      </c>
+      <c r="G160">
+        <v>159</v>
+      </c>
+      <c r="H160" s="3"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" s="4"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
+      <c r="F161" s="12">
+        <v>45695</v>
+      </c>
+      <c r="G161">
+        <v>160</v>
+      </c>
+      <c r="H161" s="3"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" s="4"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
+      <c r="F162" s="12">
+        <v>45696</v>
+      </c>
+      <c r="G162">
+        <v>161</v>
+      </c>
+      <c r="H162" s="3"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" s="4"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
+      <c r="F163" s="12">
+        <v>45697</v>
+      </c>
+      <c r="G163">
+        <v>162</v>
+      </c>
+      <c r="H163" s="3"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="4"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
+      <c r="F164" s="12">
+        <v>45698</v>
+      </c>
+      <c r="G164">
+        <v>163</v>
+      </c>
+      <c r="H164" s="3"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" s="4"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
+      <c r="F165" s="12">
+        <v>45699</v>
+      </c>
+      <c r="G165">
+        <v>164</v>
+      </c>
+      <c r="H165" s="3"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" s="4"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
+      <c r="F166" s="12">
+        <v>45700</v>
+      </c>
+      <c r="G166">
+        <v>165</v>
+      </c>
+      <c r="H166" s="3"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" s="4"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
+      <c r="F167" s="12">
+        <v>45701</v>
+      </c>
+      <c r="G167">
+        <v>166</v>
+      </c>
+      <c r="H167" s="3"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B168" s="4"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
+      <c r="F168" s="12">
+        <v>45702</v>
+      </c>
+      <c r="G168">
+        <v>167</v>
+      </c>
+      <c r="H168" s="3"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" s="4"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
+      <c r="F169" s="12">
+        <v>45703</v>
+      </c>
+      <c r="G169">
+        <v>168</v>
+      </c>
+      <c r="H169" s="3"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" s="4"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
+      <c r="F170" s="12">
+        <v>45704</v>
+      </c>
+      <c r="G170">
+        <v>169</v>
+      </c>
+      <c r="H170" s="3"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" s="4"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="F171" s="12">
+        <v>45705</v>
+      </c>
+      <c r="G171">
+        <v>170</v>
+      </c>
+      <c r="H171" s="3"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" s="4"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="F172" s="12">
+        <v>45706</v>
+      </c>
+      <c r="G172">
+        <v>171</v>
+      </c>
+      <c r="H172" s="3"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B173" s="4"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="F173" s="12">
+        <v>45707</v>
+      </c>
+      <c r="G173">
+        <v>172</v>
+      </c>
+      <c r="H173" s="3"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B174" s="4"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="F174" s="12">
+        <v>45708</v>
+      </c>
+      <c r="G174">
+        <v>173</v>
+      </c>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" s="4"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="F175" s="12">
+        <v>45709</v>
+      </c>
+      <c r="G175">
+        <v>174</v>
+      </c>
+      <c r="H175" s="3"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" s="4"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="F176" s="12">
+        <v>45710</v>
+      </c>
+      <c r="G176">
+        <v>175</v>
+      </c>
+      <c r="H176" s="3"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="4"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
+      <c r="F177" s="12">
+        <v>45711</v>
+      </c>
+      <c r="G177">
+        <v>176</v>
+      </c>
+      <c r="H177" s="3"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="4"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
       <c r="E178" s="5"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="F178" s="12">
+        <v>45712</v>
+      </c>
+      <c r="G178">
+        <v>177</v>
+      </c>
+      <c r="H178" s="3"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="4"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
       <c r="E179" s="5"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="F179" s="12">
+        <v>45713</v>
+      </c>
+      <c r="G179">
+        <v>178</v>
+      </c>
+      <c r="H179" s="3"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="4"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
       <c r="E180" s="5"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
+      <c r="F180" s="12">
+        <v>45714</v>
+      </c>
+      <c r="G180">
+        <v>179</v>
+      </c>
+      <c r="H180" s="3"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="4"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
       <c r="E181" s="5"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
+      <c r="F181" s="12">
+        <v>45715</v>
+      </c>
+      <c r="G181">
+        <v>180</v>
+      </c>
+      <c r="H181" s="3"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="4"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
+      <c r="F182" s="12">
+        <v>45716</v>
+      </c>
+      <c r="G182">
+        <v>181</v>
+      </c>
+      <c r="H182" s="3"/>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="4"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="F183" s="12">
+        <v>45717</v>
+      </c>
+      <c r="G183">
+        <v>182</v>
+      </c>
+      <c r="H183" s="3"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="4"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="F184" s="12">
+        <v>45718</v>
+      </c>
+      <c r="G184">
+        <v>183</v>
+      </c>
+      <c r="H184" s="3"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="4"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
       <c r="E185" s="5"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="F185" s="12">
+        <v>45719</v>
+      </c>
+      <c r="G185">
+        <v>184</v>
+      </c>
+      <c r="H185" s="3"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="4"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
       <c r="E186" s="5"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="F186" s="12">
+        <v>45720</v>
+      </c>
+      <c r="G186">
+        <v>185</v>
+      </c>
+      <c r="H186" s="3"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" s="4"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="F187" s="12">
+        <v>45721</v>
+      </c>
+      <c r="G187">
+        <v>186</v>
+      </c>
+      <c r="H187" s="3"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" s="4"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="F188" s="12">
+        <v>45722</v>
+      </c>
+      <c r="G188">
+        <v>187</v>
+      </c>
+      <c r="H188" s="3"/>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B189" s="4"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
       <c r="E189" s="5"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="F189" s="12">
+        <v>45723</v>
+      </c>
+      <c r="G189">
+        <v>188</v>
+      </c>
+      <c r="H189" s="3"/>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" s="4"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="F190" s="12">
+        <v>45724</v>
+      </c>
+      <c r="G190">
+        <v>189</v>
+      </c>
+      <c r="H190" s="3"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B191" s="4"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="F191" s="12">
+        <v>45725</v>
+      </c>
+      <c r="G191">
+        <v>190</v>
+      </c>
+      <c r="H191" s="3"/>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B192" s="4"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
       <c r="E192" s="5"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
+      <c r="F192" s="12">
+        <v>45726</v>
+      </c>
+      <c r="G192">
+        <v>191</v>
+      </c>
+      <c r="H192" s="3"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="4"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
+      <c r="F193" s="12">
+        <v>45727</v>
+      </c>
+      <c r="G193">
+        <v>192</v>
+      </c>
+      <c r="H193" s="3"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" s="4"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
       <c r="E194" s="5"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
+      <c r="F194" s="12">
+        <v>45728</v>
+      </c>
+      <c r="G194">
+        <v>193</v>
+      </c>
+      <c r="H194" s="3"/>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="4"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
       <c r="E195" s="5"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
+      <c r="F195" s="12">
+        <v>45729</v>
+      </c>
+      <c r="G195">
+        <v>194</v>
+      </c>
+      <c r="H195" s="3"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="4"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
+      <c r="F196" s="12">
+        <v>45730</v>
+      </c>
+      <c r="G196">
+        <v>195</v>
+      </c>
+      <c r="H196" s="3"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" s="4"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
       <c r="E197" s="5"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
+      <c r="F197" s="12">
+        <v>45731</v>
+      </c>
+      <c r="G197">
+        <v>196</v>
+      </c>
+      <c r="H197" s="3"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" s="4"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
       <c r="E198" s="5"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
+      <c r="F198" s="12">
+        <v>45732</v>
+      </c>
+      <c r="G198">
+        <v>197</v>
+      </c>
+      <c r="H198" s="3"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B199" s="4"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
       <c r="E199" s="5"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
+      <c r="F199" s="12">
+        <v>45733</v>
+      </c>
+      <c r="G199">
+        <v>198</v>
+      </c>
+      <c r="H199" s="3"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" s="4"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
       <c r="E200" s="5"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="F200" s="12">
+        <v>45734</v>
+      </c>
+      <c r="G200">
+        <v>199</v>
+      </c>
+      <c r="H200" s="3"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B201" s="4"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
       <c r="E201" s="5"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
+      <c r="F201" s="12">
+        <v>45735</v>
+      </c>
+      <c r="G201">
+        <v>200</v>
+      </c>
+      <c r="H201" s="3"/>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B202" s="4"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
       <c r="E202" s="5"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
+      <c r="F202" s="12">
+        <v>45736</v>
+      </c>
+      <c r="G202">
+        <v>201</v>
+      </c>
+      <c r="H202" s="3"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" s="4"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
       <c r="E203" s="5"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="F203" s="12">
+        <v>45737</v>
+      </c>
+      <c r="G203">
+        <v>202</v>
+      </c>
+      <c r="H203" s="3"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B204" s="4"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
       <c r="E204" s="5"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
+      <c r="F204" s="12">
+        <v>45738</v>
+      </c>
+      <c r="G204">
+        <v>203</v>
+      </c>
+      <c r="H204" s="3"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B205" s="4"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
       <c r="E205" s="5"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
+      <c r="F205" s="12">
+        <v>45739</v>
+      </c>
+      <c r="G205">
+        <v>204</v>
+      </c>
+      <c r="H205" s="3"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="4"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
       <c r="E206" s="5"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
+      <c r="F206" s="12">
+        <v>45740</v>
+      </c>
+      <c r="G206">
+        <v>205</v>
+      </c>
+      <c r="H206" s="3"/>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B207" s="4"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
       <c r="E207" s="5"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
+      <c r="F207" s="12">
+        <v>45741</v>
+      </c>
+      <c r="G207">
+        <v>206</v>
+      </c>
+      <c r="H207" s="3"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B208" s="4"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
       <c r="E208" s="5"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
+      <c r="F208" s="12">
+        <v>45742</v>
+      </c>
+      <c r="G208">
+        <v>207</v>
+      </c>
+      <c r="H208" s="3"/>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="4"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
       <c r="E209" s="5"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
+      <c r="F209" s="12">
+        <v>45743</v>
+      </c>
+      <c r="G209">
+        <v>208</v>
+      </c>
+      <c r="H209" s="3"/>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B210" s="4"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
       <c r="E210" s="5"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
+      <c r="F210" s="12">
+        <v>45744</v>
+      </c>
+      <c r="G210">
+        <v>209</v>
+      </c>
+      <c r="H210" s="3"/>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="4"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
       <c r="E211" s="5"/>
-      <c r="F211" s="6"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
+      <c r="F211" s="12">
+        <v>45745</v>
+      </c>
+      <c r="G211">
+        <v>210</v>
+      </c>
+      <c r="H211" s="3"/>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B212" s="4"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
       <c r="E212" s="5"/>
-      <c r="F212" s="6"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
+      <c r="F212" s="12">
+        <v>45746</v>
+      </c>
+      <c r="G212">
+        <v>211</v>
+      </c>
+      <c r="H212" s="3"/>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" s="4"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
       <c r="E213" s="5"/>
-      <c r="F213" s="6"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
+      <c r="F213" s="12">
+        <v>45747</v>
+      </c>
+      <c r="G213">
+        <v>212</v>
+      </c>
+      <c r="H213" s="3"/>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B214" s="4"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
       <c r="E214" s="5"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
+      <c r="F214" s="12">
+        <v>45748</v>
+      </c>
+      <c r="G214">
+        <v>213</v>
+      </c>
+      <c r="H214" s="3"/>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" s="4"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
       <c r="E215" s="5"/>
-      <c r="F215" s="6"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
+      <c r="F215" s="12">
+        <v>45749</v>
+      </c>
+      <c r="G215">
+        <v>214</v>
+      </c>
+      <c r="H215" s="3"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" s="4"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
       <c r="E216" s="5"/>
-      <c r="F216" s="6"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
+      <c r="F216" s="12">
+        <v>45750</v>
+      </c>
+      <c r="G216">
+        <v>215</v>
+      </c>
+      <c r="H216" s="3"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="4"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
       <c r="E217" s="5"/>
-      <c r="F217" s="6"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
+      <c r="F217" s="12">
+        <v>45751</v>
+      </c>
+      <c r="G217">
+        <v>216</v>
+      </c>
+      <c r="H217" s="3"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="4"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
       <c r="E218" s="5"/>
-      <c r="F218" s="6"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
+      <c r="F218" s="12">
+        <v>45752</v>
+      </c>
+      <c r="G218">
+        <v>217</v>
+      </c>
+      <c r="H218" s="3"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="4"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
       <c r="E219" s="5"/>
-      <c r="F219" s="6"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
+      <c r="F219" s="12">
+        <v>45753</v>
+      </c>
+      <c r="G219">
+        <v>218</v>
+      </c>
+      <c r="H219" s="3"/>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B220" s="4"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
       <c r="E220" s="5"/>
-      <c r="F220" s="6"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
+      <c r="F220" s="12">
+        <v>45754</v>
+      </c>
+      <c r="G220">
+        <v>219</v>
+      </c>
+      <c r="H220" s="3"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="4"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
       <c r="E221" s="5"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
+      <c r="F221" s="12">
+        <v>45755</v>
+      </c>
+      <c r="G221">
+        <v>220</v>
+      </c>
+      <c r="H221" s="3"/>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="4"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
       <c r="E222" s="5"/>
-      <c r="F222" s="6"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
+      <c r="F222" s="12">
+        <v>45756</v>
+      </c>
+      <c r="G222">
+        <v>221</v>
+      </c>
+      <c r="H222" s="3"/>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="4"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
       <c r="E223" s="5"/>
-      <c r="F223" s="6"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
+      <c r="F223" s="12">
+        <v>45757</v>
+      </c>
+      <c r="G223">
+        <v>222</v>
+      </c>
+      <c r="H223" s="3"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" s="4"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
       <c r="E224" s="5"/>
-      <c r="F224" s="6"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
+      <c r="F224" s="12">
+        <v>45758</v>
+      </c>
+      <c r="G224">
+        <v>223</v>
+      </c>
+      <c r="H224" s="3"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="4"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
       <c r="E225" s="5"/>
-      <c r="F225" s="6"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
+      <c r="F225" s="12">
+        <v>45759</v>
+      </c>
+      <c r="G225">
+        <v>224</v>
+      </c>
+      <c r="H225" s="3"/>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="4"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
       <c r="E226" s="5"/>
-      <c r="F226" s="6"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
+      <c r="F226" s="12">
+        <v>45760</v>
+      </c>
+      <c r="G226">
+        <v>225</v>
+      </c>
+      <c r="H226" s="3"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" s="4"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
       <c r="E227" s="5"/>
-      <c r="F227" s="6"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
+      <c r="F227" s="12">
+        <v>45761</v>
+      </c>
+      <c r="G227">
+        <v>226</v>
+      </c>
+      <c r="H227" s="3"/>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" s="4"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
       <c r="E228" s="5"/>
-      <c r="F228" s="6"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
+      <c r="F228" s="12">
+        <v>45762</v>
+      </c>
+      <c r="G228">
+        <v>227</v>
+      </c>
+      <c r="H228" s="3"/>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" s="4"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
       <c r="E229" s="5"/>
-      <c r="F229" s="6"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
+      <c r="F229" s="12">
+        <v>45763</v>
+      </c>
+      <c r="G229">
+        <v>228</v>
+      </c>
+      <c r="H229" s="3"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" s="4"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
       <c r="E230" s="5"/>
-      <c r="F230" s="6"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
+      <c r="F230" s="12">
+        <v>45764</v>
+      </c>
+      <c r="G230">
+        <v>229</v>
+      </c>
+      <c r="H230" s="3"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B231" s="4"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
       <c r="E231" s="5"/>
-      <c r="F231" s="6"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
+      <c r="F231" s="12">
+        <v>45765</v>
+      </c>
+      <c r="G231">
+        <v>230</v>
+      </c>
+      <c r="H231" s="3"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="4"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
       <c r="E232" s="5"/>
-      <c r="F232" s="6"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
+      <c r="F232" s="12">
+        <v>45766</v>
+      </c>
+      <c r="G232">
+        <v>231</v>
+      </c>
+      <c r="H232" s="3"/>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B233" s="4"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
       <c r="E233" s="5"/>
-      <c r="F233" s="6"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
+      <c r="F233" s="12">
+        <v>45767</v>
+      </c>
+      <c r="G233">
+        <v>232</v>
+      </c>
+      <c r="H233" s="3"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B234" s="4"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
       <c r="E234" s="5"/>
-      <c r="F234" s="6"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
+      <c r="F234" s="12">
+        <v>45768</v>
+      </c>
+      <c r="G234">
+        <v>233</v>
+      </c>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F235" s="12">
+        <v>45769</v>
+      </c>
+      <c r="G235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F236" s="12">
+        <v>45770</v>
+      </c>
+      <c r="G236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F237" s="12">
+        <v>45771</v>
+      </c>
+      <c r="G237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F238" s="12">
+        <v>45772</v>
+      </c>
+      <c r="G238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F239" s="12">
+        <v>45773</v>
+      </c>
+      <c r="G239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F240" s="12">
+        <v>45774</v>
+      </c>
+      <c r="G240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F241" s="12">
+        <v>45775</v>
+      </c>
+      <c r="G241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F242" s="12">
+        <v>45776</v>
+      </c>
+      <c r="G242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F243" s="12">
+        <v>45777</v>
+      </c>
+      <c r="G243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F244" s="12">
+        <v>45778</v>
+      </c>
+      <c r="G244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F245" s="12">
+        <v>45779</v>
+      </c>
+      <c r="G245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F246" s="12">
+        <v>45780</v>
+      </c>
+      <c r="G246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F247" s="12">
+        <v>45781</v>
+      </c>
+      <c r="G247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F248" s="12">
+        <v>45782</v>
+      </c>
+      <c r="G248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F249" s="12">
+        <v>45783</v>
+      </c>
+      <c r="G249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F250" s="12">
+        <v>45784</v>
+      </c>
+      <c r="G250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F251" s="12">
+        <v>45785</v>
+      </c>
+      <c r="G251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F252" s="12">
+        <v>45786</v>
+      </c>
+      <c r="G252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F253" s="12">
+        <v>45787</v>
+      </c>
+      <c r="G253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F254" s="12">
+        <v>45788</v>
+      </c>
+      <c r="G254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F255" s="12">
+        <v>45789</v>
+      </c>
+      <c r="G255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F256" s="12">
+        <v>45790</v>
+      </c>
+      <c r="G256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F257" s="12">
+        <v>45791</v>
+      </c>
+      <c r="G257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F258" s="12">
+        <v>45792</v>
+      </c>
+      <c r="G258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F259" s="12">
+        <v>45793</v>
+      </c>
+      <c r="G259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F260" s="12">
+        <v>45794</v>
+      </c>
+      <c r="G260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F261" s="12">
+        <v>45795</v>
+      </c>
+      <c r="G261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F262" s="12">
+        <v>45796</v>
+      </c>
+      <c r="G262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F263" s="12">
+        <v>45797</v>
+      </c>
+      <c r="G263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F264" s="12">
+        <v>45798</v>
+      </c>
+      <c r="G264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F265" s="12">
+        <v>45799</v>
+      </c>
+      <c r="G265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F266" s="12">
+        <v>45800</v>
+      </c>
+      <c r="G266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F267" s="12">
+        <v>45801</v>
+      </c>
+      <c r="G267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F268" s="12">
+        <v>45802</v>
+      </c>
+      <c r="G268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F269" s="12">
+        <v>45803</v>
+      </c>
+      <c r="G269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F270" s="12">
+        <v>45804</v>
+      </c>
+      <c r="G270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F271" s="12">
+        <v>45805</v>
+      </c>
+      <c r="G271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F272" s="12">
+        <v>45806</v>
+      </c>
+      <c r="G272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F273" s="12">
+        <v>45807</v>
+      </c>
+      <c r="G273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F274" s="12">
+        <v>45808</v>
+      </c>
+      <c r="G274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F275" s="12">
+        <v>45809</v>
+      </c>
+      <c r="G275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F276" s="12">
+        <v>45810</v>
+      </c>
+      <c r="G276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F277" s="12">
+        <v>45811</v>
+      </c>
+      <c r="G277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F278" s="12">
+        <v>45812</v>
+      </c>
+      <c r="G278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F279" s="12">
+        <v>45813</v>
+      </c>
+      <c r="G279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F280" s="12">
+        <v>45814</v>
+      </c>
+      <c r="G280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F281" s="12">
+        <v>45815</v>
+      </c>
+      <c r="G281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F282" s="12">
+        <v>45816</v>
+      </c>
+      <c r="G282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F283" s="12">
+        <v>45817</v>
+      </c>
+      <c r="G283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F284" s="12">
+        <v>45818</v>
+      </c>
+      <c r="G284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F285" s="12">
+        <v>45819</v>
+      </c>
+      <c r="G285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F286" s="12">
+        <v>45820</v>
+      </c>
+      <c r="G286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F287" s="12">
+        <v>45821</v>
+      </c>
+      <c r="G287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F288" s="12">
+        <v>45822</v>
+      </c>
+      <c r="G288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F289" s="12">
+        <v>45823</v>
+      </c>
+      <c r="G289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F290" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F291" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F292" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F293" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F294" s="12">
+        <v>45828</v>
+      </c>
+      <c r="G294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F295" s="12">
+        <v>45829</v>
+      </c>
+      <c r="G295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F296" s="12">
+        <v>45830</v>
+      </c>
+      <c r="G296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F297" s="12">
+        <v>45831</v>
+      </c>
+      <c r="G297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F298" s="12">
+        <v>45832</v>
+      </c>
+      <c r="G298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F299" s="12">
+        <v>45833</v>
+      </c>
+      <c r="G299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F300" s="12">
+        <v>45834</v>
+      </c>
+      <c r="G300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F301" s="12">
+        <v>45835</v>
+      </c>
+      <c r="G301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F302" s="12">
+        <v>45836</v>
+      </c>
+      <c r="G302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F303" s="12">
+        <v>45837</v>
+      </c>
+      <c r="G303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F304" s="12">
+        <v>45838</v>
+      </c>
+      <c r="G304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F305" s="12">
+        <v>45839</v>
+      </c>
+      <c r="G305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F306" s="12">
+        <v>45840</v>
+      </c>
+      <c r="G306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F307" s="12">
+        <v>45841</v>
+      </c>
+      <c r="G307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F308" s="12">
+        <v>45842</v>
+      </c>
+      <c r="G308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F309" s="12">
+        <v>45843</v>
+      </c>
+      <c r="G309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F310" s="12">
+        <v>45844</v>
+      </c>
+      <c r="G310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F311" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F312" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F313" s="12">
+        <v>45847</v>
+      </c>
+      <c r="G313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F314" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F315" s="12">
+        <v>45849</v>
+      </c>
+      <c r="G315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F316" s="12">
+        <v>45850</v>
+      </c>
+      <c r="G316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F317" s="12">
+        <v>45851</v>
+      </c>
+      <c r="G317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F318" s="12">
+        <v>45852</v>
+      </c>
+      <c r="G318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F319" s="12">
+        <v>45853</v>
+      </c>
+      <c r="G319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F320" s="12">
+        <v>45854</v>
+      </c>
+      <c r="G320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F321" s="12">
+        <v>45855</v>
+      </c>
+      <c r="G321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F322" s="12">
+        <v>45856</v>
+      </c>
+      <c r="G322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F323" s="12">
+        <v>45857</v>
+      </c>
+      <c r="G323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F324" s="12">
+        <v>45858</v>
+      </c>
+      <c r="G324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F325" s="12">
+        <v>45859</v>
+      </c>
+      <c r="G325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F326" s="12">
+        <v>45860</v>
+      </c>
+      <c r="G326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F327" s="12">
+        <v>45861</v>
+      </c>
+      <c r="G327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F328" s="12">
+        <v>45862</v>
+      </c>
+      <c r="G328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F329" s="12">
+        <v>45863</v>
+      </c>
+      <c r="G329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F330" s="12">
+        <v>45864</v>
+      </c>
+      <c r="G330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F331" s="12">
+        <v>45865</v>
+      </c>
+      <c r="G331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F332" s="12">
+        <v>45866</v>
+      </c>
+      <c r="G332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F333" s="12">
+        <v>45867</v>
+      </c>
+      <c r="G333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F334" s="12">
+        <v>45868</v>
+      </c>
+      <c r="G334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F335" s="12">
+        <v>45869</v>
+      </c>
+      <c r="G335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F336" s="12">
+        <v>45870</v>
+      </c>
+      <c r="G336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F337" s="12">
+        <v>45871</v>
+      </c>
+      <c r="G337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F338" s="12">
+        <v>45872</v>
+      </c>
+      <c r="G338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F339" s="12">
+        <v>45873</v>
+      </c>
+      <c r="G339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F340" s="12">
+        <v>45874</v>
+      </c>
+      <c r="G340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F341" s="12">
+        <v>45875</v>
+      </c>
+      <c r="G341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F342" s="12">
+        <v>45876</v>
+      </c>
+      <c r="G342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F343" s="12">
+        <v>45877</v>
+      </c>
+      <c r="G343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F344" s="12">
+        <v>45878</v>
+      </c>
+      <c r="G344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F345" s="12">
+        <v>45879</v>
+      </c>
+      <c r="G345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F346" s="12">
+        <v>45880</v>
+      </c>
+      <c r="G346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F347" s="12">
+        <v>45881</v>
+      </c>
+      <c r="G347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F348" s="12">
+        <v>45882</v>
+      </c>
+      <c r="G348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F349" s="12">
+        <v>45883</v>
+      </c>
+      <c r="G349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F350" s="12">
+        <v>45884</v>
+      </c>
+      <c r="G350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F351" s="12">
+        <v>45885</v>
+      </c>
+      <c r="G351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F352" s="12">
+        <v>45886</v>
+      </c>
+      <c r="G352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F353" s="12">
+        <v>45887</v>
+      </c>
+      <c r="G353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F354" s="12">
+        <v>45888</v>
+      </c>
+      <c r="G354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F355" s="12">
+        <v>45889</v>
+      </c>
+      <c r="G355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F356" s="12">
+        <v>45890</v>
+      </c>
+      <c r="G356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F357" s="12">
+        <v>45891</v>
+      </c>
+      <c r="G357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F358" s="12">
+        <v>45892</v>
+      </c>
+      <c r="G358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F359" s="12">
+        <v>45893</v>
+      </c>
+      <c r="G359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F360" s="12">
+        <v>45894</v>
+      </c>
+      <c r="G360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F361" s="12">
+        <v>45895</v>
+      </c>
+      <c r="G361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F362" s="12">
+        <v>45896</v>
+      </c>
+      <c r="G362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F363" s="12">
+        <v>45897</v>
+      </c>
+      <c r="G363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F364" s="12">
+        <v>45898</v>
+      </c>
+      <c r="G364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F365" s="12">
+        <v>45899</v>
+      </c>
+      <c r="G365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F366" s="12">
+        <v>45900</v>
+      </c>
+      <c r="G366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F367" s="12">
+        <v>45901</v>
+      </c>
+      <c r="G367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F368" s="12">
+        <v>45902</v>
+      </c>
+      <c r="G368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F369" s="12">
+        <v>45903</v>
+      </c>
+      <c r="G369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F370" s="12">
+        <v>45904</v>
+      </c>
+      <c r="G370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F371" s="12">
+        <v>45905</v>
+      </c>
+      <c r="G371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F372" s="12">
+        <v>45906</v>
+      </c>
+      <c r="G372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F373" s="12">
+        <v>45907</v>
+      </c>
+      <c r="G373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F374" s="12">
+        <v>45908</v>
+      </c>
+      <c r="G374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F375" s="12">
+        <v>45909</v>
+      </c>
+      <c r="G375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F376" s="12">
+        <v>45910</v>
+      </c>
+      <c r="G376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F377" s="12">
+        <v>45911</v>
+      </c>
+      <c r="G377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F378" s="12">
+        <v>45912</v>
+      </c>
+      <c r="G378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F379" s="12">
+        <v>45913</v>
+      </c>
+      <c r="G379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F380" s="12">
+        <v>45914</v>
+      </c>
+      <c r="G380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F381" s="12">
+        <v>45915</v>
+      </c>
+      <c r="G381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F382" s="12">
+        <v>45916</v>
+      </c>
+      <c r="G382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F383" s="12">
+        <v>45917</v>
+      </c>
+      <c r="G383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F384" s="12">
+        <v>45918</v>
+      </c>
+      <c r="G384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F385" s="12">
+        <v>45919</v>
+      </c>
+      <c r="G385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F386" s="12">
+        <v>45920</v>
+      </c>
+      <c r="G386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F387" s="12">
+        <v>45921</v>
+      </c>
+      <c r="G387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F388" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F389" s="12">
+        <v>45923</v>
+      </c>
+      <c r="G389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F390" s="12">
+        <v>45924</v>
+      </c>
+      <c r="G390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F391" s="12">
+        <v>45925</v>
+      </c>
+      <c r="G391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F392" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F393" s="12">
+        <v>45927</v>
+      </c>
+      <c r="G393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F394" s="12">
+        <v>45928</v>
+      </c>
+      <c r="G394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F395" s="12">
+        <v>45929</v>
+      </c>
+      <c r="G395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F396" s="12">
+        <v>45930</v>
+      </c>
+      <c r="G396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F397" s="12">
+        <v>45931</v>
+      </c>
+      <c r="G397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F398" s="12">
+        <v>45932</v>
+      </c>
+      <c r="G398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F399" s="12">
+        <v>45933</v>
+      </c>
+      <c r="G399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F400" s="12">
+        <v>45934</v>
+      </c>
+      <c r="G400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F401" s="12">
+        <v>45935</v>
+      </c>
+      <c r="G401">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{EBA9D136-FB6E-4241-BA72-5083A9ABAA75}"/>
+    <hyperlink ref="D94" r:id="rId1" xr:uid="{EBA9D136-FB6E-4241-BA72-5083A9ABAA75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
